--- a/Database/projectSchemas.xlsx
+++ b/Database/projectSchemas.xlsx
@@ -16,75 +16,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>UserId</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>CustomerId</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>Email/Phone</t>
+    <t>RestarantId</t>
+  </si>
+  <si>
+    <t>RestarantName</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>BestSelling</t>
+  </si>
+  <si>
+    <t>FacilityAndFeatures</t>
+  </si>
+  <si>
+    <t>Resta.Contact.No</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time(slot)</t>
+  </si>
+  <si>
+    <t>GuestName</t>
+  </si>
+  <si>
+    <t>Mobile No/Email</t>
+  </si>
+  <si>
+    <t>Special Request</t>
+  </si>
+  <si>
+    <t>Restaurant Table</t>
+  </si>
+  <si>
+    <t>Table Reservation Table</t>
+  </si>
+  <si>
+    <t>FoodId</t>
+  </si>
+  <si>
+    <t>FoodName</t>
+  </si>
+  <si>
+    <t>FoodType</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Food Menu Table</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Review/Feedback Table</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Phone No</t>
+  </si>
+  <si>
+    <t>ContactPersonName</t>
+  </si>
+  <si>
+    <t>Berger</t>
+  </si>
+  <si>
+    <t>snacks</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Soup</t>
+  </si>
+  <si>
+    <t>pizza</t>
   </si>
   <si>
     <t>User Table</t>
   </si>
   <si>
-    <t>Customer Table</t>
-  </si>
-  <si>
-    <t>RestarantId</t>
-  </si>
-  <si>
-    <t>RestarantName</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Restaurant Details</t>
-  </si>
-  <si>
-    <t>ContactName</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>RestaurantImage</t>
-  </si>
-  <si>
-    <t>Cuisine</t>
-  </si>
-  <si>
-    <t>Average Cost</t>
-  </si>
-  <si>
-    <t>BestSelling</t>
-  </si>
-  <si>
-    <t>FacilityAndFeatures</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
-    <t>Resta.Contact.No</t>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>jjnjk</t>
+  </si>
+  <si>
+    <t>dgdxg</t>
+  </si>
+  <si>
+    <t>FeatureId</t>
+  </si>
+  <si>
+    <t>FeatureName</t>
+  </si>
+  <si>
+    <t>RestaurantId</t>
+  </si>
+  <si>
+    <t>Feature Table</t>
+  </si>
+  <si>
+    <t>OpeningTime</t>
+  </si>
+  <si>
+    <t>ClosingTime</t>
+  </si>
+  <si>
+    <t>CuisineId</t>
+  </si>
+  <si>
+    <t>CuisineName</t>
+  </si>
+  <si>
+    <t>Cuisine Table</t>
+  </si>
+  <si>
+    <t>NumberOfGuest</t>
+  </si>
+  <si>
+    <t>RestarntId</t>
+  </si>
+  <si>
+    <t>SpecialRequestId</t>
+  </si>
+  <si>
+    <t>SpecialRequest</t>
+  </si>
+  <si>
+    <t>BookingId</t>
+  </si>
+  <si>
+    <t>Menu Booking Table</t>
+  </si>
+  <si>
+    <t>MenuBookingId</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>RatingId</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>NumberOfTables</t>
+  </si>
+  <si>
+    <t>50 = 100</t>
+  </si>
+  <si>
+    <t>CapacityOfTable</t>
+  </si>
+  <si>
+    <t>? = 30</t>
+  </si>
+  <si>
+    <t>Restarant Imges Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Selling </t>
+  </si>
+  <si>
+    <t>UserId(PK)</t>
+  </si>
+  <si>
+    <t>RestaurantId(PK)</t>
+  </si>
+  <si>
+    <t>ImageId(FK)</t>
+  </si>
+  <si>
+    <t>ImageId(FK)2</t>
+  </si>
+  <si>
+    <t>ImageId(PK)</t>
   </si>
 </sst>
 </file>
@@ -137,48 +275,148 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C7" totalsRowShown="0">
-  <sortState ref="A2:C7">
-    <sortCondition ref="A1:A7"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" name="UserId"/>
-    <tableColumn id="2" name="UserName"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name="UserId(PK)"/>
+    <tableColumn id="2" name="Phone No"/>
     <tableColumn id="3" name="Password"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="F1:I7" totalsRowShown="0">
-  <tableColumns count="4">
-    <tableColumn id="1" name="CustomerId"/>
-    <tableColumn id="2" name="FullName"/>
-    <tableColumn id="3" name="Email/Phone"/>
-    <tableColumn id="4" name="Password"/>
+    <tableColumn id="4" name="UserType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A13:N18" totalsRowShown="0">
-  <tableColumns count="14">
-    <tableColumn id="1" name="RestarantId"/>
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="G43:I48" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="SpecialRequestId"/>
+    <tableColumn id="2" name="SpecialRequest"/>
+    <tableColumn id="3" name="BookingId"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A51:D55" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name="MenuBookingId"/>
+    <tableColumn id="2" name="FoodId"/>
+    <tableColumn id="3" name="Quantity"/>
+    <tableColumn id="4" name="UserId"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A13:Q18" totalsRowShown="0">
+  <tableColumns count="17">
+    <tableColumn id="1" name="RestaurantId(PK)"/>
     <tableColumn id="2" name="RestarantName"/>
     <tableColumn id="3" name="Address"/>
     <tableColumn id="4" name="City"/>
-    <tableColumn id="5" name="ContactName"/>
+    <tableColumn id="5" name="ContactPersonName"/>
     <tableColumn id="6" name="Phone"/>
     <tableColumn id="7" name="Email"/>
-    <tableColumn id="8" name="RestaurantImage"/>
+    <tableColumn id="8" name="ImageId(FK)"/>
     <tableColumn id="9" name="Cuisine"/>
-    <tableColumn id="10" name="Average Cost"/>
+    <tableColumn id="10" name="ImageId(FK)2"/>
     <tableColumn id="11" name="BestSelling"/>
     <tableColumn id="12" name="FacilityAndFeatures"/>
-    <tableColumn id="13" name="Timing"/>
+    <tableColumn id="17" name="OpeningTime"/>
+    <tableColumn id="13" name="ClosingTime"/>
     <tableColumn id="14" name="Resta.Contact.No"/>
+    <tableColumn id="15" name="NumberOfTables"/>
+    <tableColumn id="16" name="CapacityOfTable"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A23:I28" totalsRowShown="0">
+  <tableColumns count="9">
+    <tableColumn id="9" name="BookingId"/>
+    <tableColumn id="1" name="Date"/>
+    <tableColumn id="2" name="Time(slot)"/>
+    <tableColumn id="3" name="GuestName"/>
+    <tableColumn id="4" name="Mobile No/Email"/>
+    <tableColumn id="5" name="Special Request"/>
+    <tableColumn id="6" name="NumberOfGuest"/>
+    <tableColumn id="8" name="RestarntId"/>
+    <tableColumn id="7" name="UserId"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A33:G38" totalsRowShown="0">
+  <tableColumns count="7">
+    <tableColumn id="1" name="FoodId"/>
+    <tableColumn id="2" name="FoodName"/>
+    <tableColumn id="3" name="FoodType"/>
+    <tableColumn id="4" name="Price"/>
+    <tableColumn id="5" name="Cuisine"/>
+    <tableColumn id="6" name="Column1"/>
+    <tableColumn id="7" name="RestarantId"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A43:E48" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="6" name="RatingId"/>
+    <tableColumn id="1" name="Ratings"/>
+    <tableColumn id="3" name="Comments"/>
+    <tableColumn id="4" name="RestarantId"/>
+    <tableColumn id="5" name="UserId"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="K23:M28" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="ImageId(PK)"/>
+    <tableColumn id="2" name="Image"/>
+    <tableColumn id="3" name="RestarantId"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="O23:P28" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="FoodId"/>
+    <tableColumn id="2" name="RestarantId"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="I33:K38" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="FeatureId"/>
+    <tableColumn id="2" name="FeatureName"/>
+    <tableColumn id="3" name="RestaurantId"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="M33:O38" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="CuisineId"/>
+    <tableColumn id="2" name="CuisineName"/>
+    <tableColumn id="3" name="RestarantId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -471,113 +709,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>50</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K26">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O27">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>200</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>150</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
         <v>19</v>
       </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>12</v>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="11">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
